--- a/ERPReports/ERPReports/Areas/Reports/Templates/LSP_Rpt_DM_RMBeginningBalanceReport.xlsx
+++ b/ERPReports/ERPReports/Areas/Reports/Templates/LSP_Rpt_DM_RMBeginningBalanceReport.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9587AC4D-B8D3-4274-B3C8-1637394AF5C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-2700" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RMBegBalanceReport" sheetId="1" r:id="rId1"/>
@@ -77,9 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-10409]mm/dd/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="[$-10409]#,##0.00;\(#,##0.00\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -167,10 +167,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -178,6 +174,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -216,7 +224,7 @@
         <xdr:cNvPr id="1024" name="Picture 0">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB2D5647-3CCC-4B2D-943B-1F4B60ED8485}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2D5647-3CCC-4B2D-943B-1F4B60ED8485}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -551,29 +559,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="6" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
@@ -584,25 +592,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="0.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -622,7 +630,7 @@
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -665,18 +673,18 @@
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
